--- a/excel/contrcat_10100.xlsx
+++ b/excel/contrcat_10100.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="契約管理全体" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>契約番号</t>
     <rPh sb="0" eb="2">
@@ -33,7 +33,7 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発行日</t>
@@ -43,14 +43,14 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ｴﾝｼﾞﾆｱ
@@ -58,21 +58,21 @@
     <rPh sb="7" eb="9">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>エンジニア名</t>
     <rPh sb="5" eb="6">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>請求サイド</t>
     <rPh sb="0" eb="2">
       <t>セイキュウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支払サイド</t>
@@ -85,14 +85,7 @@
     <rPh sb="2" eb="3">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>客先担当者</t>
@@ -102,31 +95,21 @@
     <rPh sb="2" eb="5">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>事務担当者</t>
-    <rPh sb="0" eb="2">
-      <t>ジム</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>通常期間</t>
@@ -136,7 +119,7 @@
     <rPh sb="2" eb="4">
       <t>キカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>期中入場</t>
@@ -146,7 +129,7 @@
     <rPh sb="2" eb="4">
       <t>ニュウジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>期中退場</t>
@@ -156,7 +139,7 @@
     <rPh sb="2" eb="4">
       <t>タイジョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>時間刻み</t>
@@ -166,14 +149,14 @@
     <rPh sb="2" eb="3">
       <t>キザ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>決済</t>
     <rPh sb="0" eb="2">
       <t>ケッサイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>見積依頼書</t>
@@ -183,14 +166,14 @@
     <rPh sb="2" eb="5">
       <t>イライショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>見積書</t>
     <rPh sb="0" eb="3">
       <t>ミツモリショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>注文請書</t>
@@ -200,14 +183,14 @@
     <rPh sb="2" eb="4">
       <t>ウケショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>契約形態</t>
@@ -217,7 +200,7 @@
     <rPh sb="2" eb="4">
       <t>ケイタイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>事業者名</t>
@@ -227,7 +210,7 @@
     <rPh sb="3" eb="4">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>事業者担当者</t>
@@ -237,7 +220,7 @@
     <rPh sb="3" eb="6">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>消費税
@@ -248,21 +231,21 @@
     <rPh sb="4" eb="6">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>注文書</t>
     <rPh sb="0" eb="3">
       <t>チュウモンショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>契約</t>
     <rPh sb="0" eb="2">
       <t>ケイヤク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>計算方法</t>
@@ -272,7 +255,7 @@
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>基準単金</t>
@@ -285,7 +268,7 @@
     <rPh sb="3" eb="4">
       <t>キン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>下限時間</t>
@@ -295,7 +278,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>上限時間</t>
@@ -305,7 +288,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>控除単価</t>
@@ -315,7 +298,7 @@
     <rPh sb="2" eb="4">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>超過単価</t>
@@ -325,49 +308,49 @@
     <rPh sb="2" eb="4">
       <t>タンカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日次</t>
     <rPh sb="0" eb="2">
       <t>ニチジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>月次</t>
     <rPh sb="0" eb="2">
       <t>ゲツジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>締め</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>支払</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>受理</t>
     <rPh sb="0" eb="2">
       <t>ジュリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>発送</t>
     <rPh sb="0" eb="2">
       <t>ハッソウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>現在稼動</t>
@@ -377,7 +360,7 @@
     <rPh sb="2" eb="4">
       <t>カドウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>営業支援費</t>
@@ -390,14 +373,88 @@
     <rPh sb="4" eb="5">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>管理メモ</t>
     <rPh sb="0" eb="2">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休憩時間</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>客先部署</t>
+    <rPh sb="0" eb="2">
+      <t>キャクサキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業場所</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>還元率</t>
+    <rPh sb="0" eb="3">
+      <t>カンゲンリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -410,7 +467,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,12 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -442,6 +493,19 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -473,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -520,6 +584,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,103 +627,130 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -946,628 +1068,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ5"/>
+  <dimension ref="A1:CH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="50" width="9" style="25"/>
+    <col min="51" max="51" width="9" style="41"/>
+    <col min="52" max="16384" width="9" style="25"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="30" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="30"/>
-      <c r="BM1" s="30"/>
-      <c r="BN1" s="30"/>
-      <c r="BO1" s="30"/>
-      <c r="BP1" s="30"/>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="1"/>
-      <c r="BV1" s="3">
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="1"/>
+      <c r="CD1" s="3">
         <v>39022</v>
       </c>
-      <c r="BW1" s="4">
+      <c r="CE1" s="4">
         <f ca="1">TODAY()</f>
-        <v>42867</v>
-      </c>
-      <c r="BY1" s="5"/>
+        <v>42880</v>
+      </c>
+      <c r="CG1" s="5"/>
     </row>
-    <row r="2" spans="1:78" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:86" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27"/>
       <c r="B2" s="29"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="Q2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="R2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="S2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23" t="s">
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="24" t="s">
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="23" t="s">
+      <c r="AP2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="6" t="s">
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AS2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6" t="s">
+      <c r="AT2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="27" t="s">
+      <c r="AU2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AV2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="27" t="s">
+      <c r="AW2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="30"/>
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU2" s="30"/>
+      <c r="BV2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="27" t="s">
+      <c r="BW2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="25" t="s">
+      <c r="BY2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BZ2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BO2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP2" s="7" t="s">
+      <c r="CB2" s="1"/>
+      <c r="CD2" s="3">
+        <v>39051</v>
+      </c>
+      <c r="CG2" s="5"/>
+    </row>
+    <row r="3" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="BQ2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS2" s="27" t="s">
+      <c r="T3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="BT2" s="1"/>
-      <c r="BV2" s="3">
-        <v>39051</v>
-      </c>
-      <c r="BY2" s="5"/>
+      <c r="U3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV3" s="27"/>
+      <c r="BW3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ3" s="27"/>
+      <c r="CA3" s="27"/>
+      <c r="CB3" s="1"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="BP3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-      <c r="BT3" s="1"/>
-      <c r="BV3" s="14"/>
-      <c r="BW3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BZ3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:78" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+    <row r="4" spans="1:86" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="17"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="17"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
       <c r="Y4" s="18"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="32"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
       <c r="AQ4" s="16"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
       <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
+      <c r="AW4" s="19"/>
       <c r="AX4" s="17"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="20"/>
       <c r="BB4" s="18"/>
       <c r="BC4" s="18"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="20"/>
       <c r="BH4" s="18"/>
       <c r="BI4" s="18"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="21"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="20"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="20"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="21"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="22"/>
+      <c r="CE4" s="22"/>
+      <c r="CF4" s="23"/>
     </row>
-    <row r="5" spans="1:78" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+    <row r="5" spans="1:86" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
       <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="18"/>
       <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="17"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
       <c r="Y5" s="18"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="16"/>
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
       <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
+      <c r="AW5" s="17"/>
       <c r="AX5" s="17"/>
-      <c r="AY5" s="18"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="20"/>
       <c r="BB5" s="18"/>
       <c r="BC5" s="18"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="18"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="20"/>
       <c r="BH5" s="18"/>
       <c r="BI5" s="18"/>
-      <c r="BJ5" s="17"/>
-      <c r="BK5" s="17"/>
-      <c r="BL5" s="17"/>
-      <c r="BM5" s="17"/>
-      <c r="BN5" s="17"/>
-      <c r="BO5" s="17"/>
-      <c r="BP5" s="17"/>
-      <c r="BQ5" s="17"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="17"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="17"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="21"/>
+      <c r="BJ5" s="20"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="20"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="20"/>
+      <c r="BQ5" s="20"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="18"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="18"/>
+      <c r="CD5" s="22"/>
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="36">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="AN1:BS1"/>
+    <mergeCell ref="AU1:CA1"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="F1:AT1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="F1:AM1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/excel/contrcat_10100.xlsx
+++ b/excel/contrcat_10100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="契約管理全体" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -223,17 +223,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>消費税
-区分</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>注文書</t>
     <rPh sb="0" eb="3">
       <t>チュウモンショ</t>
@@ -455,6 +444,22 @@
       <t>カンゲンリツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>欠勤控除対象者</t>
+    <rPh sb="0" eb="2">
+      <t>ケッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -704,6 +709,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -716,7 +727,22 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,27 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1070,190 +1075,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BV4" sqref="BV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="50" width="9" style="25"/>
-    <col min="51" max="51" width="9" style="41"/>
+    <col min="51" max="51" width="9" style="27"/>
     <col min="52" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="36" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BH1" s="32"/>
+      <c r="BI1" s="32"/>
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="32"/>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="32"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+      <c r="CA1" s="32"/>
       <c r="CB1" s="1"/>
       <c r="CD1" s="3">
         <v>39022</v>
       </c>
       <c r="CE1" s="4">
         <f ca="1">TODAY()</f>
-        <v>42880</v>
+        <v>42893</v>
       </c>
       <c r="CG1" s="5"/>
     </row>
     <row r="2" spans="1:86" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="26" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30" t="s">
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30" t="s">
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
       <c r="AK2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="AL2" s="35"/>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="30"/>
+      <c r="AN2" s="33"/>
       <c r="AO2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1264,76 +1269,76 @@
       <c r="AR2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AS2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" s="26" t="s">
+      <c r="AT2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AU2" s="26" t="s">
+      <c r="AU2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AV2" s="26" t="s">
+      <c r="AV2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AW2" s="28" t="s">
+      <c r="AW2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="28" t="s">
+      <c r="AX2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AY2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30" t="s">
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30" t="s">
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="33"/>
       <c r="BR2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="BS2" s="35"/>
-      <c r="BT2" s="30" t="s">
+      <c r="BT2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="31" t="s">
-        <v>23</v>
+      <c r="BU2" s="33"/>
+      <c r="BV2" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="BW2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="BX2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BY2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" s="26" t="s">
-        <v>25</v>
+      <c r="CA2" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="CB2" s="1"/>
       <c r="CD2" s="3">
@@ -1342,209 +1347,209 @@
       <c r="CG2" s="5"/>
     </row>
     <row r="3" spans="1:86" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
       <c r="S3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AL3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="BB3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="BC3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="BD3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="BE3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="BF3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK3" s="12" t="s">
+      <c r="BS3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="BT3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="BU3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="BX3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AP3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="BJ3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="BK3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="BN3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="BS3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="BT3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="BU3" s="10" t="s">
+      <c r="BY3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BV3" s="27"/>
-      <c r="BW3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="BY3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ3" s="27"/>
-      <c r="CA3" s="27"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
       <c r="CB3" s="1"/>
       <c r="CD3" s="15"/>
       <c r="CE3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="CG3" s="5" t="s">
+      <c r="CH3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:86" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1598,7 +1603,7 @@
       <c r="AV4" s="18"/>
       <c r="AW4" s="19"/>
       <c r="AX4" s="17"/>
-      <c r="AY4" s="40"/>
+      <c r="AY4" s="26"/>
       <c r="AZ4" s="18"/>
       <c r="BA4" s="20"/>
       <c r="BB4" s="18"/>
@@ -1684,7 +1689,7 @@
       <c r="AV5" s="18"/>
       <c r="AW5" s="17"/>
       <c r="AX5" s="17"/>
-      <c r="AY5" s="40"/>
+      <c r="AY5" s="26"/>
       <c r="AZ5" s="18"/>
       <c r="BA5" s="20"/>
       <c r="BB5" s="18"/>
@@ -1721,11 +1726,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
     <mergeCell ref="AU1:CA1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="O2:O3"/>
@@ -1742,21 +1757,11 @@
     <mergeCell ref="AT2:AT3"/>
     <mergeCell ref="CA2:CA3"/>
     <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
